--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1230,6 +1230,254 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="1.a Screenshots_E3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="381000"/>
+          <a:ext cx="18268950" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="1.a Screenshots_E15.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="2667000"/>
+          <a:ext cx="16478250" cy="10601325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="2 User Access Review_D1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="0"/>
+          <a:ext cx="23812500" cy="15630525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="3.a Screenshots_E3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="381000"/>
+          <a:ext cx="23812500" cy="15506700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="3.a Screenshots_E15.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="2667000"/>
+          <a:ext cx="23812500" cy="15363825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="4 Post Review_D1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="0"/>
+          <a:ext cx="23812500" cy="15630525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1719,6 +1967,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4689,6 +4938,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4909,6 +5159,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7759,5 +8010,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1244,8 +1244,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1282,8 +1282,8 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1300,7 +1300,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="2667000"/>
+          <a:off x="2438400" y="5029200"/>
           <a:ext cx="16478250" cy="10601325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1325,8 +1325,8 @@
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1368,8 +1368,8 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1406,8 +1406,8 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1424,7 +1424,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="2667000"/>
+          <a:off x="2438400" y="5829300"/>
           <a:ext cx="23812500" cy="15363825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1449,8 +1449,8 @@
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1765,28 +1765,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E23"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" ht="13" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="3" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="4" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="6" spans="2:5" ht="19.5" customHeight="1"/>
+    <row r="7" spans="2:5" ht="24" customHeight="1"/>
+    <row r="8" spans="2:5" ht="29" customHeight="1">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" ht="23" customHeight="1">
       <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="10" spans="2:5" ht="31.5" customHeight="1"/>
+    <row r="11" spans="2:5" ht="13" customHeight="1">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" ht="13" customHeight="1">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" ht="13" customHeight="1">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" ht="13" customHeight="1">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" ht="56" customHeight="1">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" ht="56" customHeight="1">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" ht="84" customHeight="1">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1857,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" ht="28" customHeight="1">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" ht="14" customHeight="1">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" ht="28" customHeight="1">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" ht="28" customHeight="1">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -1901,6 +1906,7 @@
         <v>15</v>
       </c>
     </row>
+    <row r="25" spans="2:4" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1908,18 +1914,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:N29"/>
+  <dimension ref="A3:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="13" customHeight="1">
       <c r="N3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="4" spans="1:14" ht="13" customHeight="1"/>
+    <row r="5" spans="1:14" ht="13" customHeight="1"/>
+    <row r="6" spans="1:14" ht="13" customHeight="1">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1927,22 +1935,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="7" spans="1:14" ht="13" customHeight="1"/>
+    <row r="8" spans="1:14" ht="50.25" customHeight="1">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="45" customHeight="1">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:14"/>
+    <row r="11" spans="1:14"/>
+    <row r="12" spans="1:14" ht="147" customHeight="1"/>
     <row r="13" spans="1:14">
       <c r="K13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="14" spans="1:14"/>
+    <row r="15" spans="1:14" ht="13" customHeight="1">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1950,21 +1963,48 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:14" ht="13" customHeight="1"/>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="18" spans="1:7"/>
+    <row r="19" spans="1:7"/>
+    <row r="20" spans="1:7"/>
+    <row r="21" spans="1:7" ht="169.5" customHeight="1"/>
+    <row r="22" spans="1:7"/>
+    <row r="23" spans="1:7"/>
+    <row r="24" spans="1:7" ht="16" customHeight="1">
       <c r="C24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="25" spans="1:7" ht="16" customHeight="1"/>
+    <row r="26" spans="1:7"/>
+    <row r="27" spans="1:7"/>
+    <row r="28" spans="1:7" ht="16" customHeight="1"/>
+    <row r="29" spans="1:7" ht="16" customHeight="1">
       <c r="G29" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1"/>
+    <row r="31" spans="1:7" ht="13" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1973,13 +2013,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2065,7 +2105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="16" customHeight="1">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -2118,7 +2158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2171,7 +2211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="16" customHeight="1">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -2218,7 +2258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="16" customHeight="1">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -2271,7 +2311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2324,7 +2364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="16" customHeight="1">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -2377,7 +2417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="16" customHeight="1">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2430,7 +2470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2483,7 +2523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2536,7 +2576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="16" customHeight="1">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -2589,7 +2629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2642,7 +2682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -2695,7 +2735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -2748,7 +2788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -2801,7 +2841,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="16" customHeight="1">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -2854,7 +2894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="16" customHeight="1">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -2907,7 +2947,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -2960,7 +3000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="16" customHeight="1">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -3013,7 +3053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" ht="16" customHeight="1">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -3066,7 +3106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="16" customHeight="1">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -3119,7 +3159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" ht="16" customHeight="1">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -3172,7 +3212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="16" customHeight="1">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -3225,7 +3265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" ht="16" customHeight="1">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -3278,7 +3318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="16" customHeight="1">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -3331,7 +3371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" ht="16" customHeight="1">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -3384,7 +3424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="16" customHeight="1">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -3437,7 +3477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" ht="16" customHeight="1">
       <c r="A28" t="s">
         <v>205</v>
       </c>
@@ -3490,7 +3530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" ht="16" customHeight="1">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -3543,7 +3583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" ht="16" customHeight="1">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -3596,7 +3636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="16" customHeight="1">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -3649,7 +3689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" ht="16" customHeight="1">
       <c r="A32" t="s">
         <v>225</v>
       </c>
@@ -3702,7 +3742,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" ht="16" customHeight="1">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -3755,7 +3795,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" ht="16" customHeight="1">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -3808,7 +3848,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" ht="16" customHeight="1">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -3861,7 +3901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" ht="16" customHeight="1">
       <c r="A36" t="s">
         <v>246</v>
       </c>
@@ -3914,7 +3954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" ht="16" customHeight="1">
       <c r="A37" t="s">
         <v>251</v>
       </c>
@@ -3967,7 +4007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" ht="16" customHeight="1">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -4020,7 +4060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" ht="16" customHeight="1">
       <c r="A39" t="s">
         <v>261</v>
       </c>
@@ -4073,7 +4113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" ht="16" customHeight="1">
       <c r="A40" t="s">
         <v>266</v>
       </c>
@@ -4126,7 +4166,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" ht="16" customHeight="1">
       <c r="A41" t="s">
         <v>270</v>
       </c>
@@ -4182,7 +4222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" ht="68" customHeight="1">
       <c r="A42" t="s">
         <v>277</v>
       </c>
@@ -4238,7 +4278,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" ht="16" customHeight="1">
       <c r="A43" t="s">
         <v>284</v>
       </c>
@@ -4294,7 +4334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" ht="16" customHeight="1">
       <c r="A44" t="s">
         <v>290</v>
       </c>
@@ -4347,7 +4387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" ht="16" customHeight="1">
       <c r="A45" t="s">
         <v>295</v>
       </c>
@@ -4400,7 +4440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" ht="16" customHeight="1">
       <c r="A46" t="s">
         <v>300</v>
       </c>
@@ -4459,7 +4499,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" ht="16" customHeight="1">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -4512,7 +4552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" ht="16" customHeight="1">
       <c r="A48" t="s">
         <v>312</v>
       </c>
@@ -4565,7 +4605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" ht="16" customHeight="1">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -4618,7 +4658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" ht="16" customHeight="1">
       <c r="A50" t="s">
         <v>320</v>
       </c>
@@ -4671,7 +4711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" ht="16" customHeight="1">
       <c r="A51" t="s">
         <v>325</v>
       </c>
@@ -4724,7 +4764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" ht="16" customHeight="1">
       <c r="A52" t="s">
         <v>329</v>
       </c>
@@ -4777,12 +4817,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="B54" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="B55">
         <f>COUNTA(A2:A1000)</f>
         <v>0</v>
@@ -4791,6 +4831,8 @@
         <v>335</v>
       </c>
     </row>
+    <row r="56" spans="1:28" ht="15.75" customHeight="1"/>
+    <row r="68" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4798,33 +4840,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="2:3" ht="13" customHeight="1"/>
+    <row r="2" spans="2:3" ht="13" customHeight="1">
       <c r="B2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="6" spans="2:3" ht="19.5" customHeight="1"/>
+    <row r="7" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="8" spans="2:3" ht="29" customHeight="1">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" ht="23" customHeight="1">
       <c r="B9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="10" spans="2:3" ht="23" customHeight="1"/>
+    <row r="11" spans="2:3" ht="13" customHeight="1">
       <c r="B11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" ht="13" customHeight="1">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -4832,7 +4881,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" ht="13" customHeight="1">
       <c r="B13" t="s">
         <v>340</v>
       </c>
@@ -4840,7 +4889,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" ht="13" customHeight="1">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -4848,7 +4897,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="15" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="17" spans="2:6" ht="13" customHeight="1">
       <c r="B17" t="s">
         <v>342</v>
       </c>
@@ -4859,7 +4910,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" ht="28" customHeight="1">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -4873,7 +4924,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" ht="27.75" customHeight="1">
       <c r="B19" t="s">
         <v>346</v>
       </c>
@@ -4884,7 +4935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" ht="31.5" customHeight="1">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -4895,7 +4946,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" ht="40.5" customHeight="1">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -4906,7 +4957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" ht="29.25" customHeight="1">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -4917,7 +4968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" ht="27.75" customHeight="1">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -4928,7 +4979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" ht="42" customHeight="1">
       <c r="C24" t="s">
         <v>353</v>
       </c>
@@ -4944,33 +4995,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E25"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" ht="13" customHeight="1">
       <c r="B2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="6" spans="2:3" ht="19.5" customHeight="1"/>
+    <row r="7" spans="2:3" ht="24" customHeight="1"/>
+    <row r="8" spans="2:3" ht="29" customHeight="1">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" ht="23" customHeight="1">
       <c r="B9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" ht="30" customHeight="1">
       <c r="B10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" ht="13" customHeight="1">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -4978,7 +5033,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" ht="13" customHeight="1">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -4986,7 +5041,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" ht="13" customHeight="1">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -4994,7 +5049,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="15" spans="2:3" ht="13" customHeight="1"/>
+    <row r="17" spans="2:5" ht="13" customHeight="1">
       <c r="B17" t="s">
         <v>342</v>
       </c>
@@ -5008,7 +5064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" ht="56" customHeight="1">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -5019,7 +5075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" ht="51.75" customHeight="1">
       <c r="B19" t="s">
         <v>346</v>
       </c>
@@ -5030,7 +5086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" ht="86.25" customHeight="1">
       <c r="B20" t="s">
         <v>361</v>
       </c>
@@ -5041,7 +5097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" ht="40.5" customHeight="1">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -5052,7 +5108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" ht="29.25" customHeight="1">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -5063,7 +5119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" ht="27.75" customHeight="1">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -5074,7 +5130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" ht="28" customHeight="1">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5085,7 +5141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" ht="13" customHeight="1">
       <c r="C25" t="s">
         <v>364</v>
       </c>
@@ -5093,6 +5149,8 @@
         <v>365</v>
       </c>
     </row>
+    <row r="26" spans="2:5" ht="13" customHeight="1"/>
+    <row r="27" spans="2:5" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5100,18 +5158,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:N31"/>
+  <dimension ref="A3:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="13" customHeight="1">
       <c r="N3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="4" spans="1:14" ht="13" customHeight="1"/>
+    <row r="5" spans="1:14" ht="13" customHeight="1"/>
+    <row r="6" spans="1:14" ht="13" customHeight="1">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5119,22 +5179,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="7" spans="1:14" ht="13" customHeight="1"/>
+    <row r="8" spans="1:14" ht="97.5" customHeight="1">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="66.75" customHeight="1">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:14"/>
+    <row r="11" spans="1:14"/>
+    <row r="12" spans="1:14" ht="141" customHeight="1"/>
     <row r="13" spans="1:14">
       <c r="K13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="14" spans="1:14"/>
+    <row r="15" spans="1:14" ht="13" customHeight="1">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -5142,21 +5207,37 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:14" ht="13" customHeight="1"/>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:10" ht="143.25" customHeight="1"/>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="13" customHeight="1">
       <c r="C27" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="28" spans="1:10" ht="13" customHeight="1"/>
+    <row r="29" spans="1:10" ht="13" customHeight="1"/>
+    <row r="30" spans="1:10" ht="13" customHeight="1"/>
+    <row r="31" spans="1:10" ht="13" customHeight="1">
       <c r="J31" t="s">
         <v>370</v>
       </c>
     </row>
+    <row r="32" spans="1:10" ht="13" customHeight="1"/>
+    <row r="33" ht="13" customHeight="1"/>
+    <row r="34" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5165,13 +5246,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB54"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -5257,7 +5338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="16" customHeight="1">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5310,7 +5391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -5363,7 +5444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="16" customHeight="1">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5410,7 +5491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="16" customHeight="1">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -5463,7 +5544,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -5516,7 +5597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="16" customHeight="1">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -5569,7 +5650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="16" customHeight="1">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -5622,7 +5703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -5675,7 +5756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5728,7 +5809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="16" customHeight="1">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -5781,7 +5862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -5834,7 +5915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -5887,7 +5968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -5940,7 +6021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -5993,7 +6074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="16" customHeight="1">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -6046,7 +6127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="16" customHeight="1">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -6099,7 +6180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -6152,7 +6233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="16" customHeight="1">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -6205,7 +6286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" ht="16" customHeight="1">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -6258,7 +6339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="16" customHeight="1">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -6311,7 +6392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" ht="16" customHeight="1">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -6364,7 +6445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="16" customHeight="1">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6417,7 +6498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" ht="16" customHeight="1">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -6470,7 +6551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="16" customHeight="1">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -6523,7 +6604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" ht="16" customHeight="1">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -6576,7 +6657,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="16" customHeight="1">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -6629,7 +6710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" ht="16" customHeight="1">
       <c r="A28" t="s">
         <v>205</v>
       </c>
@@ -6682,7 +6763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" ht="16" customHeight="1">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -6735,7 +6816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" ht="16" customHeight="1">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -6788,7 +6869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="16" customHeight="1">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -6841,7 +6922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" ht="16" customHeight="1">
       <c r="A32" t="s">
         <v>225</v>
       </c>
@@ -6894,7 +6975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" ht="16" customHeight="1">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -6947,7 +7028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" ht="16" customHeight="1">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -7000,7 +7081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" ht="16" customHeight="1">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -7053,7 +7134,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" ht="16" customHeight="1">
       <c r="A36" t="s">
         <v>246</v>
       </c>
@@ -7106,7 +7187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" ht="16" customHeight="1">
       <c r="A37" t="s">
         <v>251</v>
       </c>
@@ -7159,7 +7240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" ht="16" customHeight="1">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -7212,7 +7293,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" ht="16" customHeight="1">
       <c r="A39" t="s">
         <v>261</v>
       </c>
@@ -7265,7 +7346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" ht="16" customHeight="1">
       <c r="A40" t="s">
         <v>266</v>
       </c>
@@ -7318,7 +7399,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" ht="16" customHeight="1">
       <c r="A41" t="s">
         <v>270</v>
       </c>
@@ -7371,7 +7452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" ht="16" customHeight="1">
       <c r="A42" t="s">
         <v>284</v>
       </c>
@@ -7424,7 +7505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" ht="16" customHeight="1">
       <c r="A43" t="s">
         <v>290</v>
       </c>
@@ -7477,7 +7558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" ht="16" customHeight="1">
       <c r="A44" t="s">
         <v>295</v>
       </c>
@@ -7530,7 +7611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" ht="16" customHeight="1">
       <c r="A45" t="s">
         <v>300</v>
       </c>
@@ -7589,7 +7670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" ht="16" customHeight="1">
       <c r="A46" t="s">
         <v>307</v>
       </c>
@@ -7642,7 +7723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" ht="16" customHeight="1">
       <c r="A47" t="s">
         <v>312</v>
       </c>
@@ -7695,7 +7776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" ht="16" customHeight="1">
       <c r="A48" t="s">
         <v>316</v>
       </c>
@@ -7748,7 +7829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" ht="16" customHeight="1">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -7801,7 +7882,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" ht="16" customHeight="1">
       <c r="A50" t="s">
         <v>325</v>
       </c>
@@ -7854,7 +7935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" ht="16" customHeight="1">
       <c r="A51" t="s">
         <v>329</v>
       </c>
@@ -7907,12 +7988,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="B53" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="B54">
         <f>COUNTA(A2:A1000)</f>
         <v>0</v>
@@ -7921,6 +8002,7 @@
         <v>374</v>
       </c>
     </row>
+    <row r="55" spans="1:28" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7928,33 +8010,40 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="2:3" ht="13" customHeight="1"/>
+    <row r="2" spans="2:3" ht="13" customHeight="1">
       <c r="B2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="6" spans="2:3" ht="19.5" customHeight="1"/>
+    <row r="7" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="8" spans="2:3" ht="29" customHeight="1">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" ht="23" customHeight="1">
       <c r="B9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="10" spans="2:3" ht="23" customHeight="1"/>
+    <row r="11" spans="2:3" ht="14" customHeight="1">
       <c r="B11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" ht="13" customHeight="1">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -7962,7 +8051,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" ht="13" customHeight="1">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -7970,7 +8059,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" ht="13" customHeight="1">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -7978,7 +8067,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="15" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="17" spans="2:5" ht="13" customHeight="1">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -7992,7 +8083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" ht="14" customHeight="1">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -8003,11 +8094,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" ht="14" customHeight="1">
       <c r="C19" t="s">
         <v>378</v>
       </c>
     </row>
+    <row r="20" spans="2:5" ht="13" customHeight="1"/>
+    <row r="21" spans="2:5" ht="13" customHeight="1"/>
+    <row r="22" spans="2:5" ht="13" customHeight="1"/>
+    <row r="23" spans="2:5" ht="13" customHeight="1"/>
+    <row r="24" spans="2:5" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1242,8 +1242,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1262,7 +1262,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="381000"/>
+          <a:off x="7962900" y="381000"/>
           <a:ext cx="18268950" cy="10287000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1281,7 +1281,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1300,7 +1300,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="5029200"/>
+          <a:off x="7962900" y="5029200"/>
           <a:ext cx="16478250" cy="10601325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1323,8 +1323,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1343,7 +1343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="0"/>
+          <a:off x="6143625" y="0"/>
           <a:ext cx="23812500" cy="15630525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1386,7 +1386,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="381000"/>
+          <a:off x="8020050" y="381000"/>
           <a:ext cx="23812500" cy="15506700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1424,7 +1424,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="5829300"/>
+          <a:off x="8020050" y="5829300"/>
           <a:ext cx="23812500" cy="15363825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1447,8 +1447,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1467,7 +1467,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="0"/>
+          <a:off x="6143625" y="0"/>
           <a:ext cx="23812500" cy="15630525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1770,6 +1770,12 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="13" customHeight="1">
       <c r="B2" t="s">
@@ -1919,6 +1925,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="13" customHeight="1">
       <c r="N3" t="s">
@@ -2018,6 +2030,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="29" max="29" width="34.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16" customHeight="1">
       <c r="A1" t="s">
@@ -4845,6 +4860,14 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="13" customHeight="1"/>
     <row r="2" spans="2:3" ht="13" customHeight="1">
@@ -5000,6 +5023,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="13" customHeight="1">
       <c r="B2" t="s">
@@ -5163,6 +5193,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="13" customHeight="1">
       <c r="N3" t="s">
@@ -8015,6 +8050,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="13" customHeight="1"/>
     <row r="2" spans="2:3" ht="13" customHeight="1">

--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1230,254 +1230,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="1.a Screenshots_E3.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962900" y="381000"/>
-          <a:ext cx="18268950" cy="10287000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="1.a Screenshots_E15.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962900" y="5029200"/>
-          <a:ext cx="16478250" cy="10601325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="2 User Access Review_D1.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6143625" y="0"/>
-          <a:ext cx="23812500" cy="15630525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="3.a Screenshots_E3.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8020050" y="381000"/>
-          <a:ext cx="23812500" cy="15506700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="3.a Screenshots_E15.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8020050" y="5829300"/>
-          <a:ext cx="23812500" cy="15363825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="4 Post Review_D1.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6143625" y="0"/>
-          <a:ext cx="23812500" cy="15630525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2019,7 +1771,6 @@
     <row r="62" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5012,7 +4763,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5275,7 +5025,6 @@
     <row r="34" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8147,6 +7896,5 @@
     <row r="24" spans="2:5" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1230,6 +1230,254 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="1.a Screenshots_E3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="381000"/>
+          <a:ext cx="18268950" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="1.a Screenshots_E15.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="5029200"/>
+          <a:ext cx="16478250" cy="10601325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="2 User Access Review_D1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="0"/>
+          <a:ext cx="23812500" cy="15630525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="3.a Screenshots_E3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="381000"/>
+          <a:ext cx="23812500" cy="15506700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="3.a Screenshots_E15.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="5829300"/>
+          <a:ext cx="23812500" cy="15363825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="4 Post Review_D1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="0"/>
+          <a:ext cx="23812500" cy="15630525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1771,6 +2019,7 @@
     <row r="62" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4763,6 +5012,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5025,6 +5275,7 @@
     <row r="34" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7896,5 +8147,6 @@
     <row r="24" spans="2:5" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1230,6 +1230,18 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>14</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="9194800" cy="5372100" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="8" name="image2.png"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000008000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9207500" y="5041900" /><a:ext cx="9194800" cy="5372100" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>11</xdr:col><xdr:colOff>180975</xdr:colOff><xdr:row>29</xdr:row><xdr:rowOff>95250</xdr:rowOff></xdr:from><xdr:ext cx="676275" cy="190500" /><xdr:sp macro="" textlink=""><xdr:nvSpPr><xdr:cNvPr id="3" name="Shape 3"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000003000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvSpPr /></xdr:nvSpPr><xdr:spPr><a:xfrm><a:off x="16144875" y="9950450" /><a:ext cx="676275" cy="190500" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="76200" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="sm" len="sm" /><a:tailEnd type="none" w="sm" len="sm" /></a:ln></xdr:spPr><xdr:txBody><a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0"><a:noAutofit /></a:bodyPr><a:lstStyle /><a:p><a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0"><a:spcBef><a:spcPts val="0" /></a:spcBef><a:spcAft><a:spcPts val="0" /></a:spcAft><a:buNone /></a:pPr><a:endParaRPr sz="1400" /></a:p></xdr:txBody></xdr:sp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>47625</xdr:colOff><xdr:row>25</xdr:row><xdr:rowOff>92074</xdr:rowOff></xdr:from><xdr:ext cx="6734175" cy="796925" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="2" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="9255125" y="9159874" /><a:ext cx="6734175" cy="796925" /><a:chOff x="2243550" y="4293375" /><a:chExt cx="6030300" cy="89700" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="4" name="Shape 4"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000004000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="2243550" y="4293375" /><a:ext cx="6030300" cy="89700" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>0</xdr:col><xdr:colOff>2657475</xdr:colOff><xdr:row>16</xdr:row><xdr:rowOff>200025</xdr:rowOff></xdr:from><xdr:ext cx="2143125" cy="3181350" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="5" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000005000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="2657475" y="5559425" /><a:ext cx="2143125" cy="3181350" /><a:chOff x="3052075" y="2001475" /><a:chExt cx="1841400" cy="2751900" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="6" name="Shape 5"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000006000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="3052075" y="2001475" /><a:ext cx="1841400" cy="2751900" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>2</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="8102600" cy="4292600" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="7" name="image1.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000007000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId2" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9207500" y="381000" /><a:ext cx="8102600" cy="4292600" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>3</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>0</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="295275" cy="200025" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="2" name="image4.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0300-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>14</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="8483600" cy="4470400" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="5" name="image5.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000005000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9271000" y="5829300" /><a:ext cx="8483600" cy="4470400" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>3</xdr:col><xdr:colOff>933450</xdr:colOff><xdr:row>27</xdr:row><xdr:rowOff>38100</xdr:rowOff></xdr:from><xdr:ext cx="6496050" cy="152400" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="2" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="9239250" y="9893300" /><a:ext cx="6496050" cy="152400" /><a:chOff x="2243550" y="4293375" /><a:chExt cx="6030300" cy="89700" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="6" name="Shape 6"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000006000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="2243550" y="4293375" /><a:ext cx="6030300" cy="89700" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>0</xdr:col><xdr:colOff>819150</xdr:colOff><xdr:row>17</xdr:row><xdr:rowOff>161925</xdr:rowOff></xdr:from><xdr:ext cx="2143125" cy="3190875" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="3" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000003000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="819150" y="6511925" /><a:ext cx="2143125" cy="3190875" /><a:chOff x="3052075" y="2001475" /><a:chExt cx="1841400" cy="2751900" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="7" name="Shape 7"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000007000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="3052075" y="2001475" /><a:ext cx="1841400" cy="2751900" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>2</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="8724900" cy="5016500" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="4" name="image6.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000004000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId2" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9271000" y="381000" /><a:ext cx="8724900" cy="5016500" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>3</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>0</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="295275" cy="200025" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="2" name="image3.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0700-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1232,7 +1232,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>14</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="9194800" cy="5372100" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="8" name="image2.png"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000008000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9207500" y="5041900" /><a:ext cx="9194800" cy="5372100" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>11</xdr:col><xdr:colOff>180975</xdr:colOff><xdr:row>29</xdr:row><xdr:rowOff>95250</xdr:rowOff></xdr:from><xdr:ext cx="676275" cy="190500" /><xdr:sp macro="" textlink=""><xdr:nvSpPr><xdr:cNvPr id="3" name="Shape 3"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000003000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvSpPr /></xdr:nvSpPr><xdr:spPr><a:xfrm><a:off x="16144875" y="9950450" /><a:ext cx="676275" cy="190500" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="76200" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="sm" len="sm" /><a:tailEnd type="none" w="sm" len="sm" /></a:ln></xdr:spPr><xdr:txBody><a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0"><a:noAutofit /></a:bodyPr><a:lstStyle /><a:p><a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0"><a:spcBef><a:spcPts val="0" /></a:spcBef><a:spcAft><a:spcPts val="0" /></a:spcAft><a:buNone /></a:pPr><a:endParaRPr sz="1400" /></a:p></xdr:txBody></xdr:sp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>47625</xdr:colOff><xdr:row>25</xdr:row><xdr:rowOff>92074</xdr:rowOff></xdr:from><xdr:ext cx="6734175" cy="796925" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="2" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="9255125" y="9159874" /><a:ext cx="6734175" cy="796925" /><a:chOff x="2243550" y="4293375" /><a:chExt cx="6030300" cy="89700" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="4" name="Shape 4"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000004000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="2243550" y="4293375" /><a:ext cx="6030300" cy="89700" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>0</xdr:col><xdr:colOff>2657475</xdr:colOff><xdr:row>16</xdr:row><xdr:rowOff>200025</xdr:rowOff></xdr:from><xdr:ext cx="2143125" cy="3181350" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="5" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000005000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="2657475" y="5559425" /><a:ext cx="2143125" cy="3181350" /><a:chOff x="3052075" y="2001475" /><a:chExt cx="1841400" cy="2751900" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="6" name="Shape 5"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000006000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="3052075" y="2001475" /><a:ext cx="1841400" cy="2751900" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>2</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="8102600" cy="4292600" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="7" name="image1.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000007000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId2" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9207500" y="381000" /><a:ext cx="8102600" cy="4292600" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>11</xdr:col><xdr:colOff>180975</xdr:colOff><xdr:row>29</xdr:row><xdr:rowOff>95250</xdr:rowOff></xdr:from><xdr:ext cx="676275" cy="190500" /><xdr:sp macro="" textlink=""><xdr:nvSpPr><xdr:cNvPr id="3" name="Shape 3"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000003000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvSpPr /></xdr:nvSpPr><xdr:spPr><a:xfrm><a:off x="16144875" y="9950450" /><a:ext cx="676275" cy="190500" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="76200" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="sm" len="sm" /><a:tailEnd type="none" w="sm" len="sm" /></a:ln></xdr:spPr><xdr:txBody><a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0"><a:noAutofit /></a:bodyPr><a:lstStyle /><a:p><a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0"><a:spcBef><a:spcPts val="0" /></a:spcBef><a:spcAft><a:spcPts val="0" /></a:spcAft><a:buNone /></a:pPr><a:endParaRPr sz="1400" /></a:p></xdr:txBody></xdr:sp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>47625</xdr:colOff><xdr:row>25</xdr:row><xdr:rowOff>92074</xdr:rowOff></xdr:from><xdr:ext cx="6734175" cy="796925" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="2" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="9266331" y="9221133" /><a:ext cx="6734175" cy="796925" /><a:chOff x="2243550" y="4293375" /><a:chExt cx="6030300" cy="89700" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="4" name="Shape 4"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000004000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="2243550" y="4293375" /><a:ext cx="6030300" cy="89700" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>0</xdr:col><xdr:colOff>2657475</xdr:colOff><xdr:row>16</xdr:row><xdr:rowOff>200025</xdr:rowOff></xdr:from><xdr:ext cx="2143125" cy="3181350" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="5" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000005000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="2657475" y="5581090" /><a:ext cx="2143125" cy="3181350" /><a:chOff x="3052075" y="2001475" /><a:chExt cx="1841400" cy="2751900" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="6" name="Shape 5"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000006000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="3052075" y="2001475" /><a:ext cx="1841400" cy="2751900" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>3</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>0</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="295275" cy="200025" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="2" name="image4.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0300-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
@@ -1682,108 +1682,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:N62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:14" ht="13" customHeight="1">
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="13" customHeight="1"/>
-    <row r="5" spans="1:14" ht="13" customHeight="1"/>
-    <row r="6" spans="1:14" ht="13" customHeight="1">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="13" customHeight="1"/>
-    <row r="8" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" customHeight="1">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14"/>
-    <row r="11" spans="1:14"/>
-    <row r="12" spans="1:14" ht="147" customHeight="1"/>
-    <row r="13" spans="1:14">
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14"/>
-    <row r="15" spans="1:14" ht="13" customHeight="1">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="13" customHeight="1"/>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7"/>
-    <row r="19" spans="1:7"/>
-    <row r="20" spans="1:7"/>
-    <row r="21" spans="1:7" ht="169.5" customHeight="1"/>
-    <row r="22" spans="1:7"/>
-    <row r="23" spans="1:7"/>
-    <row r="24" spans="1:7" ht="16" customHeight="1">
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1"/>
-    <row r="26" spans="1:7"/>
-    <row r="27" spans="1:7"/>
-    <row r="28" spans="1:7" ht="16" customHeight="1"/>
-    <row r="29" spans="1:7" ht="16" customHeight="1">
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1"/>
-    <row r="31" spans="1:7" ht="13" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=xl/worksheets/sheet2.xml><?xml version='1.0' encoding='UTF-8'?>
+<worksheet><dimension ref="A3:N62" /><sheetViews><sheetView workbookViewId="0" /></sheetViews><sheetFormatPr defaultRowHeight="15" /><cols><col min="1" max="1" width="40.42578125" customWidth="1" /><col min="2" max="2" width="10.85546875" customWidth="1" /><col min="3" max="3" width="59" customWidth="1" /><col min="13" max="13" width="6.42578125" customWidth="1" /></cols><sheetData><row r="3" spans="1:14" ht="13" customHeight="1"><c r="N3" t="s"><v>29</v></c></row><row r="4" spans="1:14" ht="13" customHeight="1" /><row r="5" spans="1:14" ht="13" customHeight="1" /><row r="6" spans="1:14" ht="13" customHeight="1"><c r="A6" t="s"><v>30</v></c><c r="B6" t="s"><v>31</v></c></row><row r="7" spans="1:14" ht="13" customHeight="1" /><row r="8" spans="1:14" ht="50.25" customHeight="1"><c r="A8" t="s"><v>32</v></c></row><row r="9" spans="1:14" ht="45" customHeight="1"><c r="A9" t="s"><v>33</v></c></row><row r="10" spans="1:14" /><row r="11" spans="1:14" /><row r="12" spans="1:14" ht="147" customHeight="1" /><row r="13" spans="1:14"><c r="K13" t="s"><v>34</v></c></row><row r="14" spans="1:14" /><row r="15" spans="1:14" ht="13" customHeight="1"><c r="A15" t="s"><v>35</v></c><c r="B15" t="s"><v>36</v></c></row><row r="16" spans="1:14" ht="13" customHeight="1" /><row r="17" spans="1:7"><c r="A17" t="s"><v>37</v></c></row><row r="18" spans="1:7" /><row r="19" spans="1:7" /><row r="20" spans="1:7" /><row r="21" spans="1:7" ht="169.5" customHeight="1" /><row r="22" spans="1:7" /><row r="23" spans="1:7" /><row r="24" spans="1:7" ht="16" customHeight="1"><c r="C24" t="s"><v>38</v></c></row><row r="25" spans="1:7" ht="16" customHeight="1" /><row r="26" spans="1:7" /><row r="27" spans="1:7" /><row r="28" spans="1:7" ht="16" customHeight="1" /><row r="29" spans="1:7" ht="16" customHeight="1"><c r="G29" t="s"><v>39</v></c></row><row r="30" spans="1:7" ht="16" customHeight="1" /><row r="31" spans="1:7" ht="13" customHeight="1" /><row r="49" ht="15.75" customHeight="1" /><row r="50" ht="15.75" customHeight="1" /><row r="51" ht="15.75" customHeight="1" /><row r="52" ht="15.75" customHeight="1" /><row r="53" ht="15.75" customHeight="1" /><row r="54" ht="15.75" customHeight="1" /><row r="55" ht="15.75" customHeight="1" /><row r="56" ht="15.75" customHeight="1" /><row r="57" ht="15.75" customHeight="1" /><row r="58" ht="15.75" customHeight="1" /><row r="59" ht="15.75" customHeight="1" /><row r="60" ht="15.75" customHeight="1" /><row r="61" ht="15.75" customHeight="1" /><row r="62" ht="15.75" customHeight="1" /></sheetData><pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3" /><drawing r:id="rId1" /></worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1232,16 +1232,471 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>11</xdr:col><xdr:colOff>180975</xdr:colOff><xdr:row>29</xdr:row><xdr:rowOff>95250</xdr:rowOff></xdr:from><xdr:ext cx="676275" cy="190500" /><xdr:sp macro="" textlink=""><xdr:nvSpPr><xdr:cNvPr id="3" name="Shape 3"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000003000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvSpPr /></xdr:nvSpPr><xdr:spPr><a:xfrm><a:off x="16144875" y="9950450" /><a:ext cx="676275" cy="190500" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="76200" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="sm" len="sm" /><a:tailEnd type="none" w="sm" len="sm" /></a:ln></xdr:spPr><xdr:txBody><a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0"><a:noAutofit /></a:bodyPr><a:lstStyle /><a:p><a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0"><a:spcBef><a:spcPts val="0" /></a:spcBef><a:spcAft><a:spcPts val="0" /></a:spcAft><a:buNone /></a:pPr><a:endParaRPr sz="1400" /></a:p></xdr:txBody></xdr:sp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>47625</xdr:colOff><xdr:row>25</xdr:row><xdr:rowOff>92074</xdr:rowOff></xdr:from><xdr:ext cx="6734175" cy="796925" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="2" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="9266331" y="9221133" /><a:ext cx="6734175" cy="796925" /><a:chOff x="2243550" y="4293375" /><a:chExt cx="6030300" cy="89700" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="4" name="Shape 4"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000004000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="2243550" y="4293375" /><a:ext cx="6030300" cy="89700" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>0</xdr:col><xdr:colOff>2657475</xdr:colOff><xdr:row>16</xdr:row><xdr:rowOff>200025</xdr:rowOff></xdr:from><xdr:ext cx="2143125" cy="3181350" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="5" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000005000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="2657475" y="5581090" /><a:ext cx="2143125" cy="3181350" /><a:chOff x="3052075" y="2001475" /><a:chExt cx="1841400" cy="2751900" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="6" name="Shape 5"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0100-000006000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="3052075" y="2001475" /><a:ext cx="1841400" cy="2751900" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="676275" cy="190500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16144875" y="9950450"/>
+          <a:ext cx="676275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6734175" cy="796925"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="Drawing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9266331" y="9221133"/>
+          <a:ext cx="6734175" cy="796925"/>
+          <a:chOff x="2243550" y="4293375"/>
+          <a:chExt cx="6030300" cy="89700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2243550" y="4293375"/>
+            <a:ext cx="6030300" cy="89700"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2143125" cy="3181350"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Shape 2" title="Drawing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2657475" y="5581090"/>
+          <a:ext cx="2143125" cy="3181350"/>
+          <a:chOff x="3052075" y="2001475"/>
+          <a:chExt cx="1841400" cy="2751900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Shape 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="3052075" y="2001475"/>
+            <a:ext cx="1841400" cy="2751900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>3</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>0</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="295275" cy="200025" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="2" name="image4.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0300-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image4.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip ns3:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>14</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="8483600" cy="4470400" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="5" name="image5.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000005000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9271000" y="5829300" /><a:ext cx="8483600" cy="4470400" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>3</xdr:col><xdr:colOff>933450</xdr:colOff><xdr:row>27</xdr:row><xdr:rowOff>38100</xdr:rowOff></xdr:from><xdr:ext cx="6496050" cy="152400" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="2" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="9239250" y="9893300" /><a:ext cx="6496050" cy="152400" /><a:chOff x="2243550" y="4293375" /><a:chExt cx="6030300" cy="89700" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="6" name="Shape 6"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000006000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="2243550" y="4293375" /><a:ext cx="6030300" cy="89700" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main"><xdr:from><xdr:col>0</xdr:col><xdr:colOff>819150</xdr:colOff><xdr:row>17</xdr:row><xdr:rowOff>161925</xdr:rowOff></xdr:from><xdr:ext cx="2143125" cy="3190875" /><xdr:grpSp><xdr:nvGrpSpPr><xdr:cNvPr id="3" name="Shape 2" title="Drawing"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000003000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvGrpSpPr /></xdr:nvGrpSpPr><xdr:grpSpPr><a:xfrm><a:off x="819150" y="6511925" /><a:ext cx="2143125" cy="3190875" /><a:chOff x="3052075" y="2001475" /><a:chExt cx="1841400" cy="2751900" /></a:xfrm></xdr:grpSpPr><xdr:cxnSp macro=""><xdr:nvCxnSpPr><xdr:cNvPr id="7" name="Shape 7"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000007000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvCxnSpPr /></xdr:nvCxnSpPr><xdr:spPr><a:xfrm rot="10800000"><a:off x="3052075" y="2001475" /><a:ext cx="1841400" cy="2751900" /></a:xfrm><a:prstGeom prst="straightConnector1"><a:avLst /></a:prstGeom><a:noFill /><a:ln w="28575" cap="flat" cmpd="sng"><a:solidFill><a:srgbClr val="FF0000" /></a:solidFill><a:prstDash val="solid" /><a:round /><a:headEnd type="none" w="med" len="med" /><a:tailEnd type="triangle" w="med" len="med" /></a:ln></xdr:spPr></xdr:cxnSp></xdr:grpSp><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>4</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>2</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="8724900" cy="5016500" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="4" name="image6.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0500-000004000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId2" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:xfrm><a:off x="9271000" y="381000" /><a:ext cx="8724900" cy="5016500" /></a:xfrm><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8483600" cy="4470400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="image5.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip ns3:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9271000" y="5829300"/>
+          <a:ext cx="8483600" cy="4470400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6496050" cy="152400"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="Drawing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9239250" y="9893300"/>
+          <a:ext cx="6496050" cy="152400"/>
+          <a:chOff x="2243550" y="4293375"/>
+          <a:chExt cx="6030300" cy="89700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Shape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId id="{00000000-0008-0000-0500-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2243550" y="4293375"/>
+            <a:ext cx="6030300" cy="89700"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2143125" cy="3190875"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Shape 2" title="Drawing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="819150" y="6511925"/>
+          <a:ext cx="2143125" cy="3190875"/>
+          <a:chOff x="3052075" y="2001475"/>
+          <a:chExt cx="1841400" cy="2751900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId id="{00000000-0008-0000-0500-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="3052075" y="2001475"/>
+            <a:ext cx="1841400" cy="2751900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8724900" cy="5016500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image6.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip ns3:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9271000" y="381000"/>
+          <a:ext cx="8724900" cy="5016500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"><xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><xdr:from><xdr:col>3</xdr:col><xdr:colOff>0</xdr:colOff><xdr:row>0</xdr:row><xdr:rowOff>0</xdr:rowOff></xdr:from><xdr:ext cx="295275" cy="200025" /><xdr:pic><xdr:nvPicPr><xdr:cNvPr id="2" name="image3.jpg"><a:extLst><a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"><a16:creationId id="{00000000-0008-0000-0700-000002000000}" /></a:ext></a:extLst></xdr:cNvPr><xdr:cNvPicPr preferRelativeResize="0" /></xdr:nvPicPr><xdr:blipFill><a:blip ns3:embed="rId1" cstate="print" /><a:stretch><a:fillRect /></a:stretch></xdr:blipFill><xdr:spPr><a:prstGeom prst="rect"><a:avLst /></a:prstGeom><a:noFill /></xdr:spPr></xdr:pic><xdr:clientData fLocksWithSheet="0" /></xdr:oneCellAnchor></xdr:wsDr>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image3.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip ns3:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1682,8 +2137,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version='1.0' encoding='UTF-8'?>
-<worksheet><dimension ref="A3:N62" /><sheetViews><sheetView workbookViewId="0" /></sheetViews><sheetFormatPr defaultRowHeight="15" /><cols><col min="1" max="1" width="40.42578125" customWidth="1" /><col min="2" max="2" width="10.85546875" customWidth="1" /><col min="3" max="3" width="59" customWidth="1" /><col min="13" max="13" width="6.42578125" customWidth="1" /></cols><sheetData><row r="3" spans="1:14" ht="13" customHeight="1"><c r="N3" t="s"><v>29</v></c></row><row r="4" spans="1:14" ht="13" customHeight="1" /><row r="5" spans="1:14" ht="13" customHeight="1" /><row r="6" spans="1:14" ht="13" customHeight="1"><c r="A6" t="s"><v>30</v></c><c r="B6" t="s"><v>31</v></c></row><row r="7" spans="1:14" ht="13" customHeight="1" /><row r="8" spans="1:14" ht="50.25" customHeight="1"><c r="A8" t="s"><v>32</v></c></row><row r="9" spans="1:14" ht="45" customHeight="1"><c r="A9" t="s"><v>33</v></c></row><row r="10" spans="1:14" /><row r="11" spans="1:14" /><row r="12" spans="1:14" ht="147" customHeight="1" /><row r="13" spans="1:14"><c r="K13" t="s"><v>34</v></c></row><row r="14" spans="1:14" /><row r="15" spans="1:14" ht="13" customHeight="1"><c r="A15" t="s"><v>35</v></c><c r="B15" t="s"><v>36</v></c></row><row r="16" spans="1:14" ht="13" customHeight="1" /><row r="17" spans="1:7"><c r="A17" t="s"><v>37</v></c></row><row r="18" spans="1:7" /><row r="19" spans="1:7" /><row r="20" spans="1:7" /><row r="21" spans="1:7" ht="169.5" customHeight="1" /><row r="22" spans="1:7" /><row r="23" spans="1:7" /><row r="24" spans="1:7" ht="16" customHeight="1"><c r="C24" t="s"><v>38</v></c></row><row r="25" spans="1:7" ht="16" customHeight="1" /><row r="26" spans="1:7" /><row r="27" spans="1:7" /><row r="28" spans="1:7" ht="16" customHeight="1" /><row r="29" spans="1:7" ht="16" customHeight="1"><c r="G29" t="s"><v>39</v></c></row><row r="30" spans="1:7" ht="16" customHeight="1" /><row r="31" spans="1:7" ht="13" customHeight="1" /><row r="49" ht="15.75" customHeight="1" /><row r="50" ht="15.75" customHeight="1" /><row r="51" ht="15.75" customHeight="1" /><row r="52" ht="15.75" customHeight="1" /><row r="53" ht="15.75" customHeight="1" /><row r="54" ht="15.75" customHeight="1" /><row r="55" ht="15.75" customHeight="1" /><row r="56" ht="15.75" customHeight="1" /><row r="57" ht="15.75" customHeight="1" /><row r="58" ht="15.75" customHeight="1" /><row r="59" ht="15.75" customHeight="1" /><row r="60" ht="15.75" customHeight="1" /><row r="61" ht="15.75" customHeight="1" /><row r="62" ht="15.75" customHeight="1" /></sheetData><pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3" /><drawing r:id="rId1" /></worksheet>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:N62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" ht="13" customHeight="1">
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13" customHeight="1"/>
+    <row r="5" spans="1:14" ht="13" customHeight="1"/>
+    <row r="6" spans="1:14" ht="13" customHeight="1">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13" customHeight="1"/>
+    <row r="8" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" customHeight="1">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14"/>
+    <row r="11" spans="1:14"/>
+    <row r="12" spans="1:14" ht="147" customHeight="1"/>
+    <row r="13" spans="1:14">
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14"/>
+    <row r="15" spans="1:14" ht="13" customHeight="1">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13" customHeight="1"/>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7"/>
+    <row r="19" spans="1:7"/>
+    <row r="20" spans="1:7"/>
+    <row r="21" spans="1:7" ht="169.5" customHeight="1"/>
+    <row r="22" spans="1:7"/>
+    <row r="23" spans="1:7"/>
+    <row r="24" spans="1:7" ht="16" customHeight="1">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1"/>
+    <row r="26" spans="1:7"/>
+    <row r="27" spans="1:7"/>
+    <row r="28" spans="1:7" ht="16" customHeight="1"/>
+    <row r="29" spans="1:7" ht="16" customHeight="1">
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1"/>
+    <row r="31" spans="1:7" ht="13" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4675,6 +5231,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4937,6 +5494,7 @@
     <row r="34" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7808,5 +8366,6 @@
     <row r="24" spans="2:5" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -1233,6 +1233,124 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{87E124CE-BA1F-8468-D304-98E0AB41F55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721600" y="965200"/>
+          <a:ext cx="2540000" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="676275" cy="190500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId id="{D78CEE31-C3E6-664B-8C0D-B6C4A9DBB0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11531600" y="3403600"/>
+          <a:ext cx="676275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main">
     <xdr:from>
@@ -1418,7 +1536,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
     <xdr:from>
@@ -1457,7 +1575,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
     <xdr:from>
@@ -1660,7 +1778,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:ns3="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
     <xdr:from>
@@ -2134,6 +2252,7 @@
     <row r="25" spans="2:4" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
